--- a/Documents/Database-Design.xlsx
+++ b/Documents/Database-Design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="117">
   <si>
     <t>TABLE: Categories</t>
   </si>
@@ -250,9 +250,6 @@
     <t>TABLE: Levels</t>
   </si>
   <si>
-    <t>PictureId</t>
-  </si>
-  <si>
     <t>Thumbnail</t>
   </si>
   <si>
@@ -353,6 +350,21 @@
   </si>
   <si>
     <t>TABLE: CartItems</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>Picture url</t>
+  </si>
+  <si>
+    <t>total price discount</t>
   </si>
 </sst>
 </file>
@@ -566,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,16 +995,10 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1020,6 +1026,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,10 +1344,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z938"/>
+  <dimension ref="A1:Z941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1376,12 +1394,12 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
       <c r="E2" s="129"/>
       <c r="F2" s="129"/>
       <c r="G2" s="129"/>
@@ -1630,7 +1648,7 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="194" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="185"/>
@@ -1866,13 +1884,13 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="22"/>
@@ -2156,7 +2174,7 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="193" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="185"/>
@@ -2516,13 +2534,13 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
       <c r="F34" s="136"/>
       <c r="G34" s="136"/>
       <c r="H34" s="136"/>
@@ -2852,7 +2870,7 @@
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="191" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="185"/>
@@ -3360,7 +3378,7 @@
       <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A58" s="184" t="s">
+      <c r="A58" s="196" t="s">
         <v>77</v>
       </c>
       <c r="B58" s="185"/>
@@ -3538,7 +3556,7 @@
       <c r="Z62" s="9"/>
     </row>
     <row r="63" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A63" s="192" t="s">
+      <c r="A63" s="190" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="185"/>
@@ -3771,7 +3789,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="72" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D69" s="76"/>
       <c r="E69" s="77"/>
@@ -3883,11 +3901,9 @@
         <v>18</v>
       </c>
       <c r="C72" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="80" t="s">
-        <v>44</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D72" s="80"/>
       <c r="E72" s="79"/>
       <c r="F72" s="81"/>
       <c r="G72" s="78"/>
@@ -3916,20 +3932,20 @@
         <v>9</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="85"/>
+        <v>81</v>
+      </c>
+      <c r="D73" s="85">
+        <v>250</v>
+      </c>
       <c r="E73" s="86"/>
-      <c r="F73" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="F73" s="8"/>
       <c r="G73" s="82"/>
       <c r="H73" s="87"/>
       <c r="I73" s="83" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -3978,8 +3994,8 @@
       <c r="Z74" s="9"/>
     </row>
     <row r="75" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A75" s="189" t="s">
-        <v>80</v>
+      <c r="A75" s="187" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="185"/>
       <c r="C75" s="185"/>
@@ -4132,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="84" t="s">
         <v>81</v>
-      </c>
-      <c r="C79" s="84" t="s">
-        <v>82</v>
       </c>
       <c r="D79" s="85">
         <v>250</v>
@@ -4192,8 +4208,8 @@
       <c r="Z80" s="9"/>
     </row>
     <row r="81" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A81" s="189" t="s">
-        <v>83</v>
+      <c r="A81" s="187" t="s">
+        <v>82</v>
       </c>
       <c r="B81" s="185"/>
       <c r="C81" s="185"/>
@@ -4346,10 +4362,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="84" t="s">
         <v>84</v>
-      </c>
-      <c r="C85" s="84" t="s">
-        <v>85</v>
       </c>
       <c r="D85" s="85"/>
       <c r="E85" s="86"/>
@@ -4380,7 +4396,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="166" t="s">
         <v>12</v>
@@ -4395,7 +4411,7 @@
       <c r="G86" s="82"/>
       <c r="H86" s="87"/>
       <c r="I86" s="82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -4420,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="166" t="s">
         <v>12</v>
@@ -4456,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="183" t="s">
         <v>75</v>
@@ -4467,7 +4483,7 @@
       <c r="G88" s="82"/>
       <c r="H88" s="87"/>
       <c r="I88" s="83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -4516,8 +4532,8 @@
       <c r="Z89" s="9"/>
     </row>
     <row r="90" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A90" s="189" t="s">
-        <v>86</v>
+      <c r="A90" s="187" t="s">
+        <v>85</v>
       </c>
       <c r="B90" s="185"/>
       <c r="C90" s="185"/>
@@ -4670,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="182" t="s">
         <v>12</v>
@@ -4680,10 +4696,10 @@
       <c r="F94" s="8"/>
       <c r="G94" s="82"/>
       <c r="H94" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I94" s="83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -4788,7 +4804,7 @@
       <c r="Z97" s="9"/>
     </row>
     <row r="98" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A98" s="187" t="s">
+      <c r="A98" s="184" t="s">
         <v>45</v>
       </c>
       <c r="B98" s="185"/>
@@ -4944,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="163" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="159" t="s">
         <v>22</v>
@@ -5144,7 +5160,7 @@
         <v>8</v>
       </c>
       <c r="B107" s="163" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107" s="166" t="s">
         <v>12</v>
@@ -5182,17 +5198,21 @@
         <v>9</v>
       </c>
       <c r="B108" s="163" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C108" s="167" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D108" s="164"/>
-      <c r="E108" s="165"/>
+      <c r="E108" s="165" t="s">
+        <v>19</v>
+      </c>
       <c r="F108" s="162"/>
       <c r="G108" s="158"/>
       <c r="H108" s="158"/>
-      <c r="I108" s="158"/>
+      <c r="I108" s="158" t="s">
+        <v>116</v>
+      </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -5211,16 +5231,22 @@
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
     </row>
-    <row r="109" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A109" s="176"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+    <row r="109" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A109" s="177">
+        <v>10</v>
+      </c>
+      <c r="B109" s="163" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" s="164"/>
+      <c r="E109" s="165"/>
+      <c r="F109" s="162"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="158"/>
+      <c r="I109" s="158"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -5240,17 +5266,15 @@
       <c r="Z109" s="9"/>
     </row>
     <row r="110" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A110" s="188" t="s">
-        <v>61</v>
-      </c>
-      <c r="B110" s="185"/>
-      <c r="C110" s="185"/>
-      <c r="D110" s="185"/>
-      <c r="E110" s="185"/>
-      <c r="F110" s="104"/>
-      <c r="G110" s="104"/>
-      <c r="H110" s="99"/>
-      <c r="I110" s="104"/>
+      <c r="A110" s="176"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -5270,33 +5294,17 @@
       <c r="Z110" s="9"/>
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A111" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" s="105" t="s">
-        <v>10</v>
-      </c>
+      <c r="A111" s="186" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="185"/>
+      <c r="C111" s="185"/>
+      <c r="D111" s="185"/>
+      <c r="E111" s="185"/>
+      <c r="F111" s="104"/>
+      <c r="G111" s="104"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="104"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
@@ -5315,26 +5323,34 @@
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
     </row>
-    <row r="112" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A112" s="109">
-        <v>1</v>
-      </c>
-      <c r="B112" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="108"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="110"/>
-      <c r="H112" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" s="110"/>
+    <row r="112" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A112" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -5354,25 +5370,25 @@
       <c r="Z112" s="9"/>
     </row>
     <row r="113" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A113" s="113">
-        <v>2</v>
-      </c>
-      <c r="B113" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" s="103" t="s">
+      <c r="A113" s="109">
+        <v>1</v>
+      </c>
+      <c r="B113" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="112"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="G113" s="111"/>
-      <c r="H113" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="I113" s="111"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="110"/>
+      <c r="H113" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="110"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -5393,10 +5409,10 @@
     </row>
     <row r="114" spans="1:26" ht="17.25" customHeight="1">
       <c r="A114" s="113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114" s="111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C114" s="103" t="s">
         <v>12</v>
@@ -5408,7 +5424,7 @@
       </c>
       <c r="G114" s="111"/>
       <c r="H114" s="102" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I114" s="111"/>
       <c r="J114" s="9"/>
@@ -5430,21 +5446,25 @@
       <c r="Z114" s="9"/>
     </row>
     <row r="115" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A115" s="117">
-        <v>4</v>
-      </c>
-      <c r="B115" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" s="115" t="s">
+      <c r="A115" s="113">
+        <v>3</v>
+      </c>
+      <c r="B115" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="116"/>
-      <c r="E115" s="117"/>
-      <c r="F115" s="114"/>
-      <c r="G115" s="114"/>
-      <c r="H115" s="118"/>
-      <c r="I115" s="114"/>
+      <c r="D115" s="112"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="111"/>
+      <c r="H115" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" s="111"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -5463,24 +5483,22 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
     </row>
-    <row r="116" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A116" s="178">
-        <v>5</v>
-      </c>
-      <c r="B116" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C116" s="121" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" s="119"/>
-      <c r="E116" s="119"/>
-      <c r="F116" s="119"/>
-      <c r="G116" s="119"/>
-      <c r="H116" s="119"/>
-      <c r="I116" s="120" t="s">
-        <v>101</v>
-      </c>
+    <row r="116" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A116" s="117">
+        <v>4</v>
+      </c>
+      <c r="B116" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="116"/>
+      <c r="E116" s="117"/>
+      <c r="F116" s="114"/>
+      <c r="G116" s="114"/>
+      <c r="H116" s="118"/>
+      <c r="I116" s="114"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -5499,120 +5517,122 @@
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
     </row>
-    <row r="117" spans="1:26" ht="15.6">
-      <c r="A117" s="179"/>
-      <c r="B117" s="122"/>
-      <c r="C117" s="122"/>
-      <c r="D117" s="122"/>
-      <c r="E117" s="122"/>
-      <c r="F117" s="122"/>
-      <c r="G117" s="122"/>
-      <c r="H117" s="122"/>
-      <c r="I117" s="122"/>
-      <c r="J117" s="122"/>
-      <c r="K117" s="122"/>
-      <c r="L117" s="122"/>
-      <c r="M117" s="122"/>
-      <c r="N117" s="122"/>
-      <c r="O117" s="122"/>
-      <c r="P117" s="122"/>
-      <c r="Q117" s="122"/>
-      <c r="R117" s="122"/>
-      <c r="S117" s="122"/>
-      <c r="T117" s="122"/>
-      <c r="U117" s="122"/>
-      <c r="V117" s="122"/>
-      <c r="W117" s="122"/>
-      <c r="X117" s="122"/>
-      <c r="Y117" s="122"/>
-      <c r="Z117" s="122"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.6">
-      <c r="A118" s="179"/>
-      <c r="B118" s="122"/>
-      <c r="C118" s="122"/>
-      <c r="D118" s="122"/>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
-      <c r="G118" s="122"/>
-      <c r="H118" s="122"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="122"/>
-      <c r="K118" s="122"/>
-      <c r="L118" s="122"/>
-      <c r="M118" s="122"/>
-      <c r="N118" s="122"/>
-      <c r="O118" s="122"/>
-      <c r="P118" s="122"/>
-      <c r="Q118" s="122"/>
-      <c r="R118" s="122"/>
-      <c r="S118" s="122"/>
-      <c r="T118" s="122"/>
-      <c r="U118" s="122"/>
-      <c r="V118" s="122"/>
-      <c r="W118" s="122"/>
-      <c r="X118" s="122"/>
-      <c r="Y118" s="122"/>
-      <c r="Z118" s="122"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.6">
-      <c r="A119" s="186" t="s">
-        <v>94</v>
-      </c>
-      <c r="B119" s="185"/>
-      <c r="C119" s="185"/>
-      <c r="D119" s="185"/>
-      <c r="E119" s="185"/>
-      <c r="F119" s="122"/>
-      <c r="G119" s="122"/>
-      <c r="H119" s="122"/>
-      <c r="I119" s="122"/>
-      <c r="J119" s="122"/>
-      <c r="K119" s="122"/>
-      <c r="L119" s="122"/>
-      <c r="M119" s="122"/>
-      <c r="N119" s="122"/>
-      <c r="O119" s="122"/>
-      <c r="P119" s="122"/>
-      <c r="Q119" s="122"/>
-      <c r="R119" s="122"/>
-      <c r="S119" s="122"/>
-      <c r="T119" s="122"/>
-      <c r="U119" s="122"/>
-      <c r="V119" s="122"/>
-      <c r="W119" s="122"/>
-      <c r="X119" s="122"/>
-      <c r="Y119" s="122"/>
-      <c r="Z119" s="122"/>
+    <row r="117" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A117" s="198">
+        <v>5</v>
+      </c>
+      <c r="B117" s="173" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="199">
+        <v>50</v>
+      </c>
+      <c r="E117" s="198"/>
+      <c r="F117" s="173"/>
+      <c r="G117" s="173"/>
+      <c r="H117" s="158"/>
+      <c r="I117" s="173"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+    </row>
+    <row r="118" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A118" s="198">
+        <v>6</v>
+      </c>
+      <c r="B118" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="199"/>
+      <c r="E118" s="198"/>
+      <c r="F118" s="173"/>
+      <c r="G118" s="173"/>
+      <c r="H118" s="158"/>
+      <c r="I118" s="173"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
+      <c r="Z118" s="9"/>
+    </row>
+    <row r="119" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A119" s="178">
+        <v>7</v>
+      </c>
+      <c r="B119" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="119"/>
+      <c r="E119" s="119"/>
+      <c r="F119" s="119"/>
+      <c r="G119" s="119"/>
+      <c r="H119" s="119"/>
+      <c r="I119" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="9"/>
+      <c r="Z119" s="9"/>
     </row>
     <row r="120" spans="1:26" ht="15.6">
-      <c r="A120" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="168" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="168" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="H120" s="153" t="s">
-        <v>9</v>
-      </c>
-      <c r="I120" s="168" t="s">
-        <v>10</v>
-      </c>
+      <c r="A120" s="179"/>
+      <c r="B120" s="122"/>
+      <c r="C120" s="122"/>
+      <c r="D120" s="122"/>
+      <c r="E120" s="122"/>
+      <c r="F120" s="122"/>
+      <c r="G120" s="122"/>
+      <c r="H120" s="122"/>
+      <c r="I120" s="122"/>
       <c r="J120" s="122"/>
       <c r="K120" s="122"/>
       <c r="L120" s="122"/>
@@ -5632,25 +5652,15 @@
       <c r="Z120" s="122"/>
     </row>
     <row r="121" spans="1:26" ht="15.6">
-      <c r="A121" s="109">
-        <v>1</v>
-      </c>
-      <c r="B121" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="169" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="170"/>
-      <c r="E121" s="171"/>
-      <c r="F121" s="172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="172"/>
-      <c r="H121" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" s="172"/>
+      <c r="A121" s="179"/>
+      <c r="B121" s="122"/>
+      <c r="C121" s="122"/>
+      <c r="D121" s="122"/>
+      <c r="E121" s="122"/>
+      <c r="F121" s="122"/>
+      <c r="G121" s="122"/>
+      <c r="H121" s="122"/>
+      <c r="I121" s="122"/>
       <c r="J121" s="122"/>
       <c r="K121" s="122"/>
       <c r="L121" s="122"/>
@@ -5670,23 +5680,17 @@
       <c r="Z121" s="122"/>
     </row>
     <row r="122" spans="1:26" ht="15.6">
-      <c r="A122" s="180">
-        <v>2</v>
-      </c>
-      <c r="B122" s="163" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122" s="166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="170"/>
-      <c r="E122" s="171"/>
-      <c r="F122" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="G122" s="172"/>
-      <c r="H122" s="154"/>
-      <c r="I122" s="172"/>
+      <c r="A122" s="197" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="185"/>
+      <c r="C122" s="185"/>
+      <c r="D122" s="185"/>
+      <c r="E122" s="185"/>
+      <c r="F122" s="122"/>
+      <c r="G122" s="122"/>
+      <c r="H122" s="122"/>
+      <c r="I122" s="122"/>
       <c r="J122" s="122"/>
       <c r="K122" s="122"/>
       <c r="L122" s="122"/>
@@ -5705,336 +5709,342 @@
       <c r="Y122" s="122"/>
       <c r="Z122" s="122"/>
     </row>
-    <row r="123" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A123" s="180">
+    <row r="123" spans="1:26" ht="15.6">
+      <c r="A123" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="158" t="s">
+      <c r="C123" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="J123" s="122"/>
+      <c r="K123" s="122"/>
+      <c r="L123" s="122"/>
+      <c r="M123" s="122"/>
+      <c r="N123" s="122"/>
+      <c r="O123" s="122"/>
+      <c r="P123" s="122"/>
+      <c r="Q123" s="122"/>
+      <c r="R123" s="122"/>
+      <c r="S123" s="122"/>
+      <c r="T123" s="122"/>
+      <c r="U123" s="122"/>
+      <c r="V123" s="122"/>
+      <c r="W123" s="122"/>
+      <c r="X123" s="122"/>
+      <c r="Y123" s="122"/>
+      <c r="Z123" s="122"/>
+    </row>
+    <row r="124" spans="1:26" ht="15.6">
+      <c r="A124" s="109">
+        <v>1</v>
+      </c>
+      <c r="B124" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="170"/>
+      <c r="E124" s="171"/>
+      <c r="F124" s="172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="172"/>
+      <c r="H124" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="172"/>
+      <c r="J124" s="122"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="122"/>
+      <c r="M124" s="122"/>
+      <c r="N124" s="122"/>
+      <c r="O124" s="122"/>
+      <c r="P124" s="122"/>
+      <c r="Q124" s="122"/>
+      <c r="R124" s="122"/>
+      <c r="S124" s="122"/>
+      <c r="T124" s="122"/>
+      <c r="U124" s="122"/>
+      <c r="V124" s="122"/>
+      <c r="W124" s="122"/>
+      <c r="X124" s="122"/>
+      <c r="Y124" s="122"/>
+      <c r="Z124" s="122"/>
+    </row>
+    <row r="125" spans="1:26" ht="15.6">
+      <c r="A125" s="180">
+        <v>2</v>
+      </c>
+      <c r="B125" s="163" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="170"/>
+      <c r="E125" s="171"/>
+      <c r="F125" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="172"/>
+      <c r="H125" s="154"/>
+      <c r="I125" s="172"/>
+      <c r="J125" s="122"/>
+      <c r="K125" s="122"/>
+      <c r="L125" s="122"/>
+      <c r="M125" s="122"/>
+      <c r="N125" s="122"/>
+      <c r="O125" s="122"/>
+      <c r="P125" s="122"/>
+      <c r="Q125" s="122"/>
+      <c r="R125" s="122"/>
+      <c r="S125" s="122"/>
+      <c r="T125" s="122"/>
+      <c r="U125" s="122"/>
+      <c r="V125" s="122"/>
+      <c r="W125" s="122"/>
+      <c r="X125" s="122"/>
+      <c r="Y125" s="122"/>
+      <c r="Z125" s="122"/>
+    </row>
+    <row r="126" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A126" s="180">
+        <v>3</v>
+      </c>
+      <c r="B126" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="159" t="s">
+      <c r="C126" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="164"/>
-      <c r="E123" s="165" t="s">
+      <c r="D126" s="164"/>
+      <c r="E126" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="158"/>
-      <c r="G123" s="158"/>
-      <c r="H123" s="158" t="s">
+      <c r="F126" s="158"/>
+      <c r="G126" s="158"/>
+      <c r="H126" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="I123" s="158"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="9"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
-      <c r="Z123" s="9"/>
-    </row>
-    <row r="124" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A124" s="180">
+      <c r="I126" s="158"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="9"/>
+    </row>
+    <row r="127" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A127" s="180">
         <v>4</v>
       </c>
-      <c r="B124" s="158" t="s">
+      <c r="B127" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C124" s="159" t="s">
+      <c r="C127" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="164">
+      <c r="D127" s="164">
         <v>500</v>
       </c>
-      <c r="E124" s="165"/>
-      <c r="F124" s="162"/>
-      <c r="G124" s="158"/>
-      <c r="H124" s="158"/>
-      <c r="I124" s="158"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-      <c r="U124" s="9"/>
-      <c r="V124" s="9"/>
-      <c r="W124" s="9"/>
-      <c r="X124" s="9"/>
-      <c r="Y124" s="9"/>
-      <c r="Z124" s="9"/>
-    </row>
-    <row r="125" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A125" s="180">
+      <c r="E127" s="165"/>
+      <c r="F127" s="162"/>
+      <c r="G127" s="158"/>
+      <c r="H127" s="158"/>
+      <c r="I127" s="158"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="9"/>
+      <c r="Z127" s="9"/>
+    </row>
+    <row r="128" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A128" s="180">
         <v>5</v>
       </c>
-      <c r="B125" s="158" t="s">
+      <c r="B128" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="C125" s="159" t="s">
+      <c r="C128" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="164">
+      <c r="D128" s="164">
         <v>50</v>
       </c>
-      <c r="E125" s="165"/>
-      <c r="F125" s="162"/>
-      <c r="G125" s="158"/>
-      <c r="H125" s="158"/>
-      <c r="I125" s="158"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="Z125" s="9"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.6">
-      <c r="A126" s="180">
+      <c r="E128" s="165"/>
+      <c r="F128" s="162"/>
+      <c r="G128" s="158"/>
+      <c r="H128" s="158"/>
+      <c r="I128" s="158"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9"/>
+      <c r="Y128" s="9"/>
+      <c r="Z128" s="9"/>
+    </row>
+    <row r="129" spans="1:26" ht="15.6">
+      <c r="A129" s="180">
         <v>6</v>
       </c>
-      <c r="B126" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="C126" s="175"/>
-      <c r="D126" s="175"/>
-      <c r="E126" s="175"/>
-      <c r="F126" s="175"/>
-      <c r="G126" s="175"/>
-      <c r="H126" s="175"/>
-      <c r="I126" s="175"/>
-      <c r="J126" s="122"/>
-      <c r="K126" s="122"/>
-      <c r="L126" s="122"/>
-      <c r="M126" s="122"/>
-      <c r="N126" s="122"/>
-      <c r="O126" s="122"/>
-      <c r="P126" s="122"/>
-      <c r="Q126" s="122"/>
-      <c r="R126" s="122"/>
-      <c r="S126" s="122"/>
-      <c r="T126" s="122"/>
-      <c r="U126" s="122"/>
-      <c r="V126" s="122"/>
-      <c r="W126" s="122"/>
-      <c r="X126" s="122"/>
-      <c r="Y126" s="122"/>
-      <c r="Z126" s="122"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.6">
-      <c r="A127" s="180">
+      <c r="B129" s="174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="175"/>
+      <c r="D129" s="175"/>
+      <c r="E129" s="175"/>
+      <c r="F129" s="175"/>
+      <c r="G129" s="175"/>
+      <c r="H129" s="175"/>
+      <c r="I129" s="175"/>
+      <c r="J129" s="122"/>
+      <c r="K129" s="122"/>
+      <c r="L129" s="122"/>
+      <c r="M129" s="122"/>
+      <c r="N129" s="122"/>
+      <c r="O129" s="122"/>
+      <c r="P129" s="122"/>
+      <c r="Q129" s="122"/>
+      <c r="R129" s="122"/>
+      <c r="S129" s="122"/>
+      <c r="T129" s="122"/>
+      <c r="U129" s="122"/>
+      <c r="V129" s="122"/>
+      <c r="W129" s="122"/>
+      <c r="X129" s="122"/>
+      <c r="Y129" s="122"/>
+      <c r="Z129" s="122"/>
+    </row>
+    <row r="130" spans="1:26" ht="15.6">
+      <c r="A130" s="180">
         <v>7</v>
       </c>
-      <c r="B127" s="174" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" s="166" t="s">
+      <c r="B130" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="175"/>
-      <c r="E127" s="175"/>
-      <c r="F127" s="173" t="s">
+      <c r="D130" s="175"/>
+      <c r="E130" s="175"/>
+      <c r="F130" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="G127" s="175"/>
-      <c r="H127" s="175"/>
-      <c r="I127" s="175"/>
-      <c r="J127" s="122"/>
-      <c r="K127" s="122"/>
-      <c r="L127" s="122"/>
-      <c r="M127" s="122"/>
-      <c r="N127" s="122"/>
-      <c r="O127" s="122"/>
-      <c r="P127" s="122"/>
-      <c r="Q127" s="122"/>
-      <c r="R127" s="122"/>
-      <c r="S127" s="122"/>
-      <c r="T127" s="122"/>
-      <c r="U127" s="122"/>
-      <c r="V127" s="122"/>
-      <c r="W127" s="122"/>
-      <c r="X127" s="122"/>
-      <c r="Y127" s="122"/>
-      <c r="Z127" s="122"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.6">
-      <c r="A128" s="179"/>
-      <c r="B128" s="122"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="122"/>
-      <c r="G128" s="122"/>
-      <c r="H128" s="122"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="122"/>
-      <c r="K128" s="122"/>
-      <c r="L128" s="122"/>
-      <c r="M128" s="122"/>
-      <c r="N128" s="122"/>
-      <c r="O128" s="122"/>
-      <c r="P128" s="122"/>
-      <c r="Q128" s="122"/>
-      <c r="R128" s="122"/>
-      <c r="S128" s="122"/>
-      <c r="T128" s="122"/>
-      <c r="U128" s="122"/>
-      <c r="V128" s="122"/>
-      <c r="W128" s="122"/>
-      <c r="X128" s="122"/>
-      <c r="Y128" s="122"/>
-      <c r="Z128" s="122"/>
-    </row>
-    <row r="129" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A129" s="176"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
-      <c r="R129" s="9"/>
-      <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="9"/>
-      <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="9"/>
-      <c r="Z129" s="9"/>
-    </row>
-    <row r="130" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A130" s="184" t="s">
-        <v>96</v>
-      </c>
-      <c r="B130" s="185"/>
-      <c r="C130" s="185"/>
-      <c r="D130" s="185"/>
-      <c r="E130" s="185"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="46"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
-      <c r="U130" s="9"/>
-      <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
-      <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
-      <c r="Z130" s="9"/>
-    </row>
-    <row r="131" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A131" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I131" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
-      <c r="Z131" s="9"/>
+      <c r="G130" s="175"/>
+      <c r="H130" s="175"/>
+      <c r="I130" s="175"/>
+      <c r="J130" s="122"/>
+      <c r="K130" s="122"/>
+      <c r="L130" s="122"/>
+      <c r="M130" s="122"/>
+      <c r="N130" s="122"/>
+      <c r="O130" s="122"/>
+      <c r="P130" s="122"/>
+      <c r="Q130" s="122"/>
+      <c r="R130" s="122"/>
+      <c r="S130" s="122"/>
+      <c r="T130" s="122"/>
+      <c r="U130" s="122"/>
+      <c r="V130" s="122"/>
+      <c r="W130" s="122"/>
+      <c r="X130" s="122"/>
+      <c r="Y130" s="122"/>
+      <c r="Z130" s="122"/>
+    </row>
+    <row r="131" spans="1:26" ht="15.6">
+      <c r="A131" s="179"/>
+      <c r="B131" s="122"/>
+      <c r="C131" s="122"/>
+      <c r="D131" s="122"/>
+      <c r="E131" s="122"/>
+      <c r="F131" s="122"/>
+      <c r="G131" s="122"/>
+      <c r="H131" s="122"/>
+      <c r="I131" s="122"/>
+      <c r="J131" s="122"/>
+      <c r="K131" s="122"/>
+      <c r="L131" s="122"/>
+      <c r="M131" s="122"/>
+      <c r="N131" s="122"/>
+      <c r="O131" s="122"/>
+      <c r="P131" s="122"/>
+      <c r="Q131" s="122"/>
+      <c r="R131" s="122"/>
+      <c r="S131" s="122"/>
+      <c r="T131" s="122"/>
+      <c r="U131" s="122"/>
+      <c r="V131" s="122"/>
+      <c r="W131" s="122"/>
+      <c r="X131" s="122"/>
+      <c r="Y131" s="122"/>
+      <c r="Z131" s="122"/>
     </row>
     <row r="132" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A132" s="50">
-        <v>1</v>
-      </c>
-      <c r="B132" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="49"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="48"/>
-      <c r="H132" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="48"/>
+      <c r="A132" s="176"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -6054,23 +6064,17 @@
       <c r="Z132" s="9"/>
     </row>
     <row r="133" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A133" s="53">
-        <v>2</v>
-      </c>
-      <c r="B133" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="52">
-        <v>50</v>
-      </c>
-      <c r="E133" s="53"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
+      <c r="A133" s="196" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" s="185"/>
+      <c r="C133" s="185"/>
+      <c r="D133" s="185"/>
+      <c r="E133" s="185"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -6090,23 +6094,33 @@
       <c r="Z133" s="9"/>
     </row>
     <row r="134" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A134" s="53">
+      <c r="A134" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C134" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="52">
-        <v>50</v>
-      </c>
-      <c r="E134" s="53"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="45"/>
-      <c r="I134" s="45"/>
+      <c r="C134" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -6126,25 +6140,25 @@
       <c r="Z134" s="9"/>
     </row>
     <row r="135" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A135" s="53">
-        <v>4</v>
-      </c>
-      <c r="B135" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="52">
-        <v>50</v>
-      </c>
-      <c r="E135" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
+      <c r="A135" s="50">
+        <v>1</v>
+      </c>
+      <c r="B135" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="49"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="48"/>
+      <c r="H135" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="48"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -6165,16 +6179,16 @@
     </row>
     <row r="136" spans="1:26" ht="16.5" customHeight="1">
       <c r="A136" s="53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B136" s="45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C136" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D136" s="52">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E136" s="53"/>
       <c r="F136" s="45"/>
@@ -6201,13 +6215,13 @@
     </row>
     <row r="137" spans="1:26" ht="16.5" customHeight="1">
       <c r="A137" s="53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D137" s="52">
         <v>50</v>
@@ -6215,9 +6229,7 @@
       <c r="E137" s="53"/>
       <c r="F137" s="45"/>
       <c r="G137" s="45"/>
-      <c r="H137" s="45" t="s">
-        <v>17</v>
-      </c>
+      <c r="H137" s="45"/>
       <c r="I137" s="45"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -6239,15 +6251,17 @@
     </row>
     <row r="138" spans="1:26" ht="16.5" customHeight="1">
       <c r="A138" s="53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="D138" s="52">
+        <v>50</v>
+      </c>
       <c r="E138" s="53" t="s">
         <v>19</v>
       </c>
@@ -6274,15 +6288,23 @@
       <c r="Z138" s="9"/>
     </row>
     <row r="139" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A139" s="176"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="A139" s="53">
+        <v>5</v>
+      </c>
+      <c r="B139" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="52">
+        <v>500</v>
+      </c>
+      <c r="E139" s="53"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="45"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -6302,17 +6324,25 @@
       <c r="Z139" s="9"/>
     </row>
     <row r="140" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A140" s="184" t="s">
-        <v>97</v>
-      </c>
-      <c r="B140" s="185"/>
-      <c r="C140" s="185"/>
-      <c r="D140" s="185"/>
-      <c r="E140" s="185"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
-      <c r="I140" s="46"/>
+      <c r="A140" s="53">
+        <v>6</v>
+      </c>
+      <c r="B140" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="52">
+        <v>50</v>
+      </c>
+      <c r="E140" s="53"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="45"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -6332,33 +6362,23 @@
       <c r="Z140" s="9"/>
     </row>
     <row r="141" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A141" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" s="123" t="s">
+      <c r="A141" s="53">
         <v>7</v>
       </c>
-      <c r="G141" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H141" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I141" s="123" t="s">
-        <v>10</v>
-      </c>
+      <c r="B141" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="52"/>
+      <c r="E141" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
@@ -6378,25 +6398,15 @@
       <c r="Z141" s="9"/>
     </row>
     <row r="142" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A142" s="127">
-        <v>1</v>
-      </c>
-      <c r="B142" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="126"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="124"/>
-      <c r="H142" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" s="124"/>
+      <c r="A142" s="176"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -6416,21 +6426,17 @@
       <c r="Z142" s="9"/>
     </row>
     <row r="143" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A143" s="178">
-        <v>2</v>
-      </c>
-      <c r="B143" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C143" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="D143" s="119"/>
-      <c r="E143" s="119"/>
-      <c r="F143" s="119"/>
-      <c r="G143" s="119"/>
-      <c r="H143" s="119"/>
-      <c r="I143" s="119"/>
+      <c r="A143" s="196" t="s">
+        <v>96</v>
+      </c>
+      <c r="B143" s="185"/>
+      <c r="C143" s="185"/>
+      <c r="D143" s="185"/>
+      <c r="E143" s="185"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="46"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -6450,15 +6456,33 @@
       <c r="Z143" s="9"/>
     </row>
     <row r="144" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A144" s="176"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="A144" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I144" s="123" t="s">
+        <v>10</v>
+      </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -6478,17 +6502,25 @@
       <c r="Z144" s="9"/>
     </row>
     <row r="145" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A145" s="184" t="s">
-        <v>100</v>
-      </c>
-      <c r="B145" s="185"/>
-      <c r="C145" s="185"/>
-      <c r="D145" s="185"/>
-      <c r="E145" s="185"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
-      <c r="I145" s="46"/>
+      <c r="A145" s="127">
+        <v>1</v>
+      </c>
+      <c r="B145" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="126"/>
+      <c r="E145" s="127"/>
+      <c r="F145" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="124"/>
+      <c r="H145" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="124"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -6508,33 +6540,21 @@
       <c r="Z145" s="9"/>
     </row>
     <row r="146" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A146" s="123" t="s">
+      <c r="A146" s="178">
         <v>2</v>
       </c>
-      <c r="B146" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G146" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H146" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I146" s="123" t="s">
-        <v>10</v>
-      </c>
+      <c r="B146" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
+      <c r="F146" s="119"/>
+      <c r="G146" s="119"/>
+      <c r="H146" s="119"/>
+      <c r="I146" s="119"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -6554,25 +6574,15 @@
       <c r="Z146" s="9"/>
     </row>
     <row r="147" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A147" s="127">
-        <v>1</v>
-      </c>
-      <c r="B147" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="126"/>
-      <c r="E147" s="127"/>
-      <c r="F147" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="124"/>
-      <c r="H147" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I147" s="124"/>
+      <c r="A147" s="176"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -6592,21 +6602,17 @@
       <c r="Z147" s="9"/>
     </row>
     <row r="148" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A148" s="178">
-        <v>2</v>
-      </c>
-      <c r="B148" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C148" s="120" t="s">
+      <c r="A148" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="D148" s="119"/>
-      <c r="E148" s="119"/>
-      <c r="F148" s="119"/>
-      <c r="G148" s="119"/>
-      <c r="H148" s="119"/>
-      <c r="I148" s="119"/>
+      <c r="B148" s="185"/>
+      <c r="C148" s="185"/>
+      <c r="D148" s="185"/>
+      <c r="E148" s="185"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="46"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -6626,15 +6632,33 @@
       <c r="Z148" s="9"/>
     </row>
     <row r="149" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A149" s="176"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
+      <c r="A149" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I149" s="123" t="s">
+        <v>10</v>
+      </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -6654,17 +6678,25 @@
       <c r="Z149" s="9"/>
     </row>
     <row r="150" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A150" s="184" t="s">
-        <v>102</v>
-      </c>
-      <c r="B150" s="185"/>
-      <c r="C150" s="185"/>
-      <c r="D150" s="185"/>
-      <c r="E150" s="185"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="46"/>
+      <c r="A150" s="127">
+        <v>1</v>
+      </c>
+      <c r="B150" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="126"/>
+      <c r="E150" s="127"/>
+      <c r="F150" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="124"/>
+      <c r="H150" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" s="124"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
@@ -6684,33 +6716,21 @@
       <c r="Z150" s="9"/>
     </row>
     <row r="151" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A151" s="123" t="s">
+      <c r="A151" s="178">
         <v>2</v>
       </c>
-      <c r="B151" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I151" s="123" t="s">
-        <v>10</v>
-      </c>
+      <c r="B151" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" s="119"/>
+      <c r="E151" s="119"/>
+      <c r="F151" s="119"/>
+      <c r="G151" s="119"/>
+      <c r="H151" s="119"/>
+      <c r="I151" s="119"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
@@ -6730,25 +6750,15 @@
       <c r="Z151" s="9"/>
     </row>
     <row r="152" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A152" s="127">
-        <v>1</v>
-      </c>
-      <c r="B152" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="126"/>
-      <c r="E152" s="127"/>
-      <c r="F152" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="124"/>
-      <c r="H152" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I152" s="124"/>
+      <c r="A152" s="176"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
@@ -6768,25 +6778,17 @@
       <c r="Z152" s="9"/>
     </row>
     <row r="153" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A153" s="178">
-        <v>2</v>
-      </c>
-      <c r="B153" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="C153" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="119"/>
-      <c r="E153" s="119"/>
-      <c r="F153" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="G153" s="119"/>
-      <c r="H153" s="119"/>
-      <c r="I153" s="119" t="s">
-        <v>104</v>
-      </c>
+      <c r="A153" s="196" t="s">
+        <v>101</v>
+      </c>
+      <c r="B153" s="185"/>
+      <c r="C153" s="185"/>
+      <c r="D153" s="185"/>
+      <c r="E153" s="185"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="46"/>
+      <c r="H153" s="46"/>
+      <c r="I153" s="46"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
@@ -6806,15 +6808,33 @@
       <c r="Z153" s="9"/>
     </row>
     <row r="154" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A154" s="176"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
+      <c r="A154" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I154" s="123" t="s">
+        <v>10</v>
+      </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
@@ -6834,17 +6854,25 @@
       <c r="Z154" s="9"/>
     </row>
     <row r="155" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A155" s="184" t="s">
-        <v>112</v>
-      </c>
-      <c r="B155" s="185"/>
-      <c r="C155" s="185"/>
-      <c r="D155" s="185"/>
-      <c r="E155" s="185"/>
-      <c r="F155" s="46"/>
-      <c r="G155" s="46"/>
-      <c r="H155" s="46"/>
-      <c r="I155" s="46"/>
+      <c r="A155" s="127">
+        <v>1</v>
+      </c>
+      <c r="B155" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="126"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="124"/>
+      <c r="H155" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" s="124"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -6864,32 +6892,24 @@
       <c r="Z155" s="9"/>
     </row>
     <row r="156" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A156" s="123" t="s">
+      <c r="A156" s="178">
         <v>2</v>
       </c>
-      <c r="B156" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G156" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I156" s="123" t="s">
-        <v>10</v>
+      <c r="B156" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="119"/>
+      <c r="E156" s="119"/>
+      <c r="F156" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" s="119"/>
+      <c r="H156" s="119"/>
+      <c r="I156" s="119" t="s">
+        <v>103</v>
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
@@ -6910,27 +6930,15 @@
       <c r="Z156" s="9"/>
     </row>
     <row r="157" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A157" s="127">
-        <v>1</v>
-      </c>
-      <c r="B157" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="126"/>
-      <c r="E157" s="127"/>
-      <c r="F157" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" s="124"/>
-      <c r="H157" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I157" s="124" t="s">
-        <v>111</v>
-      </c>
+      <c r="A157" s="176"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
@@ -6950,23 +6958,17 @@
       <c r="Z157" s="9"/>
     </row>
     <row r="158" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A158" s="178">
-        <v>2</v>
-      </c>
-      <c r="B158" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="C158" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="119"/>
-      <c r="E158" s="119"/>
-      <c r="F158" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="G158" s="119"/>
-      <c r="H158" s="119"/>
-      <c r="I158" s="119"/>
+      <c r="A158" s="196" t="s">
+        <v>111</v>
+      </c>
+      <c r="B158" s="185"/>
+      <c r="C158" s="185"/>
+      <c r="D158" s="185"/>
+      <c r="E158" s="185"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="46"/>
+      <c r="I158" s="46"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -6986,23 +6988,33 @@
       <c r="Z158" s="9"/>
     </row>
     <row r="159" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A159" s="178">
+      <c r="A159" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B159" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="C159" s="145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="119"/>
-      <c r="E159" s="119"/>
-      <c r="F159" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="G159" s="119"/>
-      <c r="H159" s="119"/>
-      <c r="I159" s="119"/>
+      <c r="C159" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I159" s="123" t="s">
+        <v>10</v>
+      </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -7022,15 +7034,27 @@
       <c r="Z159" s="9"/>
     </row>
     <row r="160" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A160" s="176"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
+      <c r="A160" s="127">
+        <v>1</v>
+      </c>
+      <c r="B160" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="126"/>
+      <c r="E160" s="127"/>
+      <c r="F160" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="124"/>
+      <c r="H160" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="124" t="s">
+        <v>110</v>
+      </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -7050,15 +7074,23 @@
       <c r="Z160" s="9"/>
     </row>
     <row r="161" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A161" s="176"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
+      <c r="A161" s="178">
+        <v>2</v>
+      </c>
+      <c r="B161" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C161" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="119"/>
+      <c r="E161" s="119"/>
+      <c r="F161" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G161" s="119"/>
+      <c r="H161" s="119"/>
+      <c r="I161" s="119"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -7078,15 +7110,23 @@
       <c r="Z161" s="9"/>
     </row>
     <row r="162" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A162" s="176"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
+      <c r="A162" s="178">
+        <v>3</v>
+      </c>
+      <c r="B162" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="C162" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="119"/>
+      <c r="E162" s="119"/>
+      <c r="F162" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" s="119"/>
+      <c r="H162" s="119"/>
+      <c r="I162" s="119"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -28833,10 +28873,100 @@
       <c r="Y938" s="9"/>
       <c r="Z938" s="9"/>
     </row>
+    <row r="939" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A939" s="176"/>
+      <c r="B939" s="9"/>
+      <c r="C939" s="9"/>
+      <c r="D939" s="9"/>
+      <c r="E939" s="9"/>
+      <c r="F939" s="9"/>
+      <c r="G939" s="9"/>
+      <c r="H939" s="9"/>
+      <c r="I939" s="9"/>
+      <c r="J939" s="9"/>
+      <c r="K939" s="9"/>
+      <c r="L939" s="9"/>
+      <c r="M939" s="9"/>
+      <c r="N939" s="9"/>
+      <c r="O939" s="9"/>
+      <c r="P939" s="9"/>
+      <c r="Q939" s="9"/>
+      <c r="R939" s="9"/>
+      <c r="S939" s="9"/>
+      <c r="T939" s="9"/>
+      <c r="U939" s="9"/>
+      <c r="V939" s="9"/>
+      <c r="W939" s="9"/>
+      <c r="X939" s="9"/>
+      <c r="Y939" s="9"/>
+      <c r="Z939" s="9"/>
+    </row>
+    <row r="940" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A940" s="176"/>
+      <c r="B940" s="9"/>
+      <c r="C940" s="9"/>
+      <c r="D940" s="9"/>
+      <c r="E940" s="9"/>
+      <c r="F940" s="9"/>
+      <c r="G940" s="9"/>
+      <c r="H940" s="9"/>
+      <c r="I940" s="9"/>
+      <c r="J940" s="9"/>
+      <c r="K940" s="9"/>
+      <c r="L940" s="9"/>
+      <c r="M940" s="9"/>
+      <c r="N940" s="9"/>
+      <c r="O940" s="9"/>
+      <c r="P940" s="9"/>
+      <c r="Q940" s="9"/>
+      <c r="R940" s="9"/>
+      <c r="S940" s="9"/>
+      <c r="T940" s="9"/>
+      <c r="U940" s="9"/>
+      <c r="V940" s="9"/>
+      <c r="W940" s="9"/>
+      <c r="X940" s="9"/>
+      <c r="Y940" s="9"/>
+      <c r="Z940" s="9"/>
+    </row>
+    <row r="941" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A941" s="176"/>
+      <c r="B941" s="9"/>
+      <c r="C941" s="9"/>
+      <c r="D941" s="9"/>
+      <c r="E941" s="9"/>
+      <c r="F941" s="9"/>
+      <c r="G941" s="9"/>
+      <c r="H941" s="9"/>
+      <c r="I941" s="9"/>
+      <c r="J941" s="9"/>
+      <c r="K941" s="9"/>
+      <c r="L941" s="9"/>
+      <c r="M941" s="9"/>
+      <c r="N941" s="9"/>
+      <c r="O941" s="9"/>
+      <c r="P941" s="9"/>
+      <c r="Q941" s="9"/>
+      <c r="R941" s="9"/>
+      <c r="S941" s="9"/>
+      <c r="T941" s="9"/>
+      <c r="U941" s="9"/>
+      <c r="V941" s="9"/>
+      <c r="W941" s="9"/>
+      <c r="X941" s="9"/>
+      <c r="Y941" s="9"/>
+      <c r="Z941" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A148:E148"/>
     <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A63:E63"/>
@@ -28848,12 +28978,6 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A75:E75"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A145:E145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Database-Design.xlsx
+++ b/Documents/Database-Design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="117">
   <si>
     <t>TABLE: Categories</t>
   </si>
@@ -578,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,10 +995,22 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,18 +1039,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,10 +1352,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z941"/>
+  <dimension ref="A1:Z944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1394,12 +1402,12 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
       <c r="E2" s="129"/>
       <c r="F2" s="129"/>
       <c r="G2" s="129"/>
@@ -1648,12 +1656,12 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="198" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1884,13 +1892,13 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="22"/>
@@ -2174,13 +2182,13 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="185"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
@@ -2534,13 +2542,13 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="189"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
       <c r="F34" s="136"/>
       <c r="G34" s="136"/>
       <c r="H34" s="136"/>
@@ -2870,13 +2878,13 @@
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A44" s="191" t="s">
+      <c r="A44" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="185"/>
-      <c r="C44" s="185"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="185"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
@@ -3378,13 +3386,13 @@
       <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A58" s="196" t="s">
+      <c r="A58" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="185"/>
-      <c r="C58" s="185"/>
-      <c r="D58" s="185"/>
-      <c r="E58" s="185"/>
+      <c r="B58" s="187"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="187"/>
+      <c r="E58" s="187"/>
       <c r="F58" s="46"/>
       <c r="G58" s="46"/>
       <c r="H58" s="46"/>
@@ -3556,13 +3564,13 @@
       <c r="Z62" s="9"/>
     </row>
     <row r="63" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A63" s="190" t="s">
+      <c r="A63" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="185"/>
-      <c r="C63" s="185"/>
-      <c r="D63" s="185"/>
-      <c r="E63" s="185"/>
+      <c r="B63" s="187"/>
+      <c r="C63" s="187"/>
+      <c r="D63" s="187"/>
+      <c r="E63" s="187"/>
       <c r="F63" s="65"/>
       <c r="G63" s="65"/>
       <c r="H63" s="65"/>
@@ -3994,13 +4002,13 @@
       <c r="Z74" s="9"/>
     </row>
     <row r="75" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A75" s="187" t="s">
+      <c r="A75" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="185"/>
-      <c r="C75" s="185"/>
-      <c r="D75" s="185"/>
-      <c r="E75" s="185"/>
+      <c r="B75" s="187"/>
+      <c r="C75" s="187"/>
+      <c r="D75" s="187"/>
+      <c r="E75" s="187"/>
       <c r="F75" s="65"/>
       <c r="G75" s="65"/>
       <c r="H75" s="65"/>
@@ -4208,13 +4216,13 @@
       <c r="Z80" s="9"/>
     </row>
     <row r="81" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A81" s="187" t="s">
+      <c r="A81" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="185"/>
-      <c r="C81" s="185"/>
-      <c r="D81" s="185"/>
-      <c r="E81" s="185"/>
+      <c r="B81" s="187"/>
+      <c r="C81" s="187"/>
+      <c r="D81" s="187"/>
+      <c r="E81" s="187"/>
       <c r="F81" s="65"/>
       <c r="G81" s="65"/>
       <c r="H81" s="65"/>
@@ -4532,13 +4540,13 @@
       <c r="Z89" s="9"/>
     </row>
     <row r="90" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A90" s="187" t="s">
+      <c r="A90" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="185"/>
-      <c r="C90" s="185"/>
-      <c r="D90" s="185"/>
-      <c r="E90" s="185"/>
+      <c r="B90" s="187"/>
+      <c r="C90" s="187"/>
+      <c r="D90" s="187"/>
+      <c r="E90" s="187"/>
       <c r="F90" s="65"/>
       <c r="G90" s="65"/>
       <c r="H90" s="65"/>
@@ -4686,21 +4694,19 @@
         <v>3</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C94" s="182" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="85"/>
       <c r="E94" s="86"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="G94" s="82"/>
-      <c r="H94" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="I94" s="83" t="s">
-        <v>87</v>
-      </c>
+      <c r="H94" s="87"/>
+      <c r="I94" s="82"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -4720,15 +4726,25 @@
       <c r="Z94" s="9"/>
     </row>
     <row r="95" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A95" s="92"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="93"/>
-      <c r="I95" s="88"/>
+      <c r="A95" s="86">
+        <v>4</v>
+      </c>
+      <c r="B95" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="85"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="82"/>
+      <c r="H95" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I95" s="83" t="s">
+        <v>87</v>
+      </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -4749,11 +4765,11 @@
     </row>
     <row r="96" spans="1:26" ht="17.25" customHeight="1">
       <c r="A96" s="92"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="92"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="91"/>
       <c r="E96" s="92"/>
-      <c r="F96" s="93"/>
+      <c r="F96" s="7"/>
       <c r="G96" s="88"/>
       <c r="H96" s="93"/>
       <c r="I96" s="88"/>
@@ -4775,16 +4791,16 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
     </row>
-    <row r="97" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A97" s="176"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+    <row r="97" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A97" s="92"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="88"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -4804,17 +4820,15 @@
       <c r="Z97" s="9"/>
     </row>
     <row r="98" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A98" s="184" t="s">
-        <v>45</v>
-      </c>
-      <c r="B98" s="185"/>
-      <c r="C98" s="185"/>
-      <c r="D98" s="185"/>
-      <c r="E98" s="185"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="99"/>
-      <c r="H98" s="99"/>
-      <c r="I98" s="99"/>
+      <c r="A98" s="176"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -4834,33 +4848,17 @@
       <c r="Z98" s="9"/>
     </row>
     <row r="99" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A99" s="153" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="153" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="153" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="153" t="s">
-        <v>7</v>
-      </c>
-      <c r="G99" s="153" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="153" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" s="153" t="s">
-        <v>10</v>
-      </c>
+      <c r="A99" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="187"/>
+      <c r="C99" s="187"/>
+      <c r="D99" s="187"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -4879,26 +4877,34 @@
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
     </row>
-    <row r="100" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A100" s="157">
-        <v>1</v>
-      </c>
-      <c r="B100" s="154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="155" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="156"/>
-      <c r="E100" s="157"/>
-      <c r="F100" s="154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="154"/>
-      <c r="H100" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="154"/>
+    <row r="100" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A100" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="153" t="s">
+        <v>10</v>
+      </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -4918,25 +4924,25 @@
       <c r="Z100" s="9"/>
     </row>
     <row r="101" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A101" s="177">
-        <v>2</v>
-      </c>
-      <c r="B101" s="158" t="s">
-        <v>46</v>
-      </c>
-      <c r="C101" s="159" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" s="160"/>
-      <c r="E101" s="161"/>
-      <c r="F101" s="162"/>
-      <c r="G101" s="158" t="s">
-        <v>47</v>
-      </c>
-      <c r="H101" s="158" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101" s="158"/>
+      <c r="A101" s="157">
+        <v>1</v>
+      </c>
+      <c r="B101" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="156"/>
+      <c r="E101" s="157"/>
+      <c r="F101" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="154"/>
+      <c r="H101" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="154"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -4957,26 +4963,22 @@
     </row>
     <row r="102" spans="1:26" ht="17.25" customHeight="1">
       <c r="A102" s="177">
-        <v>3</v>
-      </c>
-      <c r="B102" s="163" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="B102" s="158" t="s">
+        <v>46</v>
       </c>
       <c r="C102" s="159" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="164">
-        <v>50</v>
-      </c>
-      <c r="E102" s="165"/>
-      <c r="F102" s="162" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D102" s="160"/>
+      <c r="E102" s="161"/>
+      <c r="F102" s="162"/>
       <c r="G102" s="158" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H102" s="158" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I102" s="158"/>
       <c r="J102" s="9"/>
@@ -4999,23 +5001,27 @@
     </row>
     <row r="103" spans="1:26" ht="17.25" customHeight="1">
       <c r="A103" s="177">
-        <v>4</v>
-      </c>
-      <c r="B103" s="158" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B103" s="163" t="s">
+        <v>88</v>
       </c>
       <c r="C103" s="159" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="165" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="162"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
+        <v>12</v>
+      </c>
+      <c r="D103" s="164">
+        <v>50</v>
+      </c>
+      <c r="E103" s="165"/>
+      <c r="F103" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="158" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="158" t="s">
+        <v>51</v>
+      </c>
       <c r="I103" s="158"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -5037,25 +5043,23 @@
     </row>
     <row r="104" spans="1:26" ht="17.25" customHeight="1">
       <c r="A104" s="177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="158" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C104" s="159" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="164">
-        <v>20</v>
-      </c>
-      <c r="E104" s="165"/>
+        <v>16</v>
+      </c>
+      <c r="D104" s="164" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="165" t="s">
+        <v>19</v>
+      </c>
       <c r="F104" s="162"/>
-      <c r="G104" s="158" t="s">
-        <v>55</v>
-      </c>
-      <c r="H104" s="158" t="s">
-        <v>56</v>
-      </c>
+      <c r="G104" s="158"/>
+      <c r="H104" s="158"/>
       <c r="I104" s="158"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -5077,24 +5081,24 @@
     </row>
     <row r="105" spans="1:26" ht="17.25" customHeight="1">
       <c r="A105" s="177">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B105" s="158" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C105" s="159" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="164">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E105" s="165"/>
-      <c r="F105" s="162" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105" s="158"/>
+      <c r="F105" s="162"/>
+      <c r="G105" s="158" t="s">
+        <v>55</v>
+      </c>
       <c r="H105" s="158" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I105" s="158"/>
       <c r="J105" s="9"/>
@@ -5117,10 +5121,10 @@
     </row>
     <row r="106" spans="1:26" ht="17.25" customHeight="1">
       <c r="A106" s="177">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106" s="158" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C106" s="159" t="s">
         <v>22</v>
@@ -5134,7 +5138,7 @@
       </c>
       <c r="G106" s="158"/>
       <c r="H106" s="158" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I106" s="158"/>
       <c r="J106" s="9"/>
@@ -5157,23 +5161,25 @@
     </row>
     <row r="107" spans="1:26" ht="17.25" customHeight="1">
       <c r="A107" s="177">
-        <v>8</v>
-      </c>
-      <c r="B107" s="163" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" s="166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="164"/>
-      <c r="E107" s="165" t="s">
-        <v>19</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B107" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="159" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="164">
+        <v>50</v>
+      </c>
+      <c r="E107" s="165"/>
       <c r="F107" s="162" t="s">
         <v>40</v>
       </c>
       <c r="G107" s="158"/>
-      <c r="H107" s="158"/>
+      <c r="H107" s="158" t="s">
+        <v>60</v>
+      </c>
       <c r="I107" s="158"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -5195,24 +5201,24 @@
     </row>
     <row r="108" spans="1:26" ht="17.25" customHeight="1">
       <c r="A108" s="177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="163" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="167" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C108" s="166" t="s">
+        <v>12</v>
       </c>
       <c r="D108" s="164"/>
       <c r="E108" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="162"/>
+      <c r="F108" s="162" t="s">
+        <v>40</v>
+      </c>
       <c r="G108" s="158"/>
       <c r="H108" s="158"/>
-      <c r="I108" s="158" t="s">
-        <v>116</v>
-      </c>
+      <c r="I108" s="158"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -5233,20 +5239,24 @@
     </row>
     <row r="109" spans="1:26" ht="17.25" customHeight="1">
       <c r="A109" s="177">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B109" s="163" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C109" s="167" t="s">
         <v>92</v>
       </c>
       <c r="D109" s="164"/>
-      <c r="E109" s="165"/>
+      <c r="E109" s="165" t="s">
+        <v>19</v>
+      </c>
       <c r="F109" s="162"/>
       <c r="G109" s="158"/>
       <c r="H109" s="158"/>
-      <c r="I109" s="158"/>
+      <c r="I109" s="158" t="s">
+        <v>116</v>
+      </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -5265,16 +5275,22 @@
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
     </row>
-    <row r="110" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A110" s="176"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+    <row r="110" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A110" s="177">
+        <v>10</v>
+      </c>
+      <c r="B110" s="163" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="164"/>
+      <c r="E110" s="165"/>
+      <c r="F110" s="162"/>
+      <c r="G110" s="158"/>
+      <c r="H110" s="158"/>
+      <c r="I110" s="158"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -5294,17 +5310,15 @@
       <c r="Z110" s="9"/>
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A111" s="186" t="s">
-        <v>61</v>
-      </c>
-      <c r="B111" s="185"/>
-      <c r="C111" s="185"/>
-      <c r="D111" s="185"/>
-      <c r="E111" s="185"/>
-      <c r="F111" s="104"/>
-      <c r="G111" s="104"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="104"/>
+      <c r="A111" s="176"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
@@ -5324,33 +5338,17 @@
       <c r="Z111" s="9"/>
     </row>
     <row r="112" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A112" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G112" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112" s="105" t="s">
-        <v>10</v>
-      </c>
+      <c r="A112" s="190" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="187"/>
+      <c r="C112" s="187"/>
+      <c r="D112" s="187"/>
+      <c r="E112" s="187"/>
+      <c r="F112" s="104"/>
+      <c r="G112" s="104"/>
+      <c r="H112" s="99"/>
+      <c r="I112" s="104"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -5369,26 +5367,34 @@
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
     </row>
-    <row r="113" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A113" s="109">
-        <v>1</v>
-      </c>
-      <c r="B113" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="108"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="110"/>
-      <c r="H113" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="110"/>
+    <row r="113" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A113" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -5408,25 +5414,25 @@
       <c r="Z113" s="9"/>
     </row>
     <row r="114" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A114" s="113">
-        <v>2</v>
-      </c>
-      <c r="B114" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="103" t="s">
+      <c r="A114" s="109">
+        <v>1</v>
+      </c>
+      <c r="B114" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="112"/>
-      <c r="E114" s="113"/>
-      <c r="F114" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="G114" s="111"/>
-      <c r="H114" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="I114" s="111"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="109"/>
+      <c r="F114" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="110"/>
+      <c r="H114" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="110"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -5447,10 +5453,10 @@
     </row>
     <row r="115" spans="1:26" ht="17.25" customHeight="1">
       <c r="A115" s="113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115" s="111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C115" s="103" t="s">
         <v>12</v>
@@ -5462,7 +5468,7 @@
       </c>
       <c r="G115" s="111"/>
       <c r="H115" s="102" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I115" s="111"/>
       <c r="J115" s="9"/>
@@ -5484,21 +5490,25 @@
       <c r="Z115" s="9"/>
     </row>
     <row r="116" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A116" s="117">
-        <v>4</v>
-      </c>
-      <c r="B116" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" s="115" t="s">
+      <c r="A116" s="113">
+        <v>3</v>
+      </c>
+      <c r="B116" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="116"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="114"/>
-      <c r="G116" s="114"/>
-      <c r="H116" s="118"/>
-      <c r="I116" s="114"/>
+      <c r="D116" s="112"/>
+      <c r="E116" s="113"/>
+      <c r="F116" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="111"/>
+      <c r="H116" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="I116" s="111"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -5518,23 +5528,21 @@
       <c r="Z116" s="9"/>
     </row>
     <row r="117" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A117" s="198">
-        <v>5</v>
-      </c>
-      <c r="B117" s="173" t="s">
-        <v>112</v>
-      </c>
-      <c r="C117" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="199">
-        <v>50</v>
-      </c>
-      <c r="E117" s="198"/>
-      <c r="F117" s="173"/>
-      <c r="G117" s="173"/>
-      <c r="H117" s="158"/>
-      <c r="I117" s="173"/>
+      <c r="A117" s="117">
+        <v>4</v>
+      </c>
+      <c r="B117" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="116"/>
+      <c r="E117" s="117"/>
+      <c r="F117" s="114"/>
+      <c r="G117" s="114"/>
+      <c r="H117" s="118"/>
+      <c r="I117" s="114"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -5554,17 +5562,19 @@
       <c r="Z117" s="9"/>
     </row>
     <row r="118" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A118" s="198">
-        <v>6</v>
+      <c r="A118" s="184">
+        <v>5</v>
       </c>
       <c r="B118" s="173" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C118" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" s="199"/>
-      <c r="E118" s="198"/>
+        <v>113</v>
+      </c>
+      <c r="D118" s="185">
+        <v>50</v>
+      </c>
+      <c r="E118" s="184"/>
       <c r="F118" s="173"/>
       <c r="G118" s="173"/>
       <c r="H118" s="158"/>
@@ -5587,24 +5597,22 @@
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
     </row>
-    <row r="119" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A119" s="178">
-        <v>7</v>
-      </c>
-      <c r="B119" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" s="121" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" s="119"/>
-      <c r="E119" s="119"/>
-      <c r="F119" s="119"/>
-      <c r="G119" s="119"/>
-      <c r="H119" s="119"/>
-      <c r="I119" s="120" t="s">
-        <v>100</v>
-      </c>
+    <row r="119" spans="1:26" ht="17.25" customHeight="1">
+      <c r="A119" s="184">
+        <v>6</v>
+      </c>
+      <c r="B119" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="185"/>
+      <c r="E119" s="184"/>
+      <c r="F119" s="173"/>
+      <c r="G119" s="173"/>
+      <c r="H119" s="158"/>
+      <c r="I119" s="173"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -5623,33 +5631,41 @@
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
     </row>
-    <row r="120" spans="1:26" ht="15.6">
-      <c r="A120" s="179"/>
-      <c r="B120" s="122"/>
-      <c r="C120" s="122"/>
-      <c r="D120" s="122"/>
-      <c r="E120" s="122"/>
-      <c r="F120" s="122"/>
-      <c r="G120" s="122"/>
-      <c r="H120" s="122"/>
-      <c r="I120" s="122"/>
-      <c r="J120" s="122"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="122"/>
-      <c r="M120" s="122"/>
-      <c r="N120" s="122"/>
-      <c r="O120" s="122"/>
-      <c r="P120" s="122"/>
-      <c r="Q120" s="122"/>
-      <c r="R120" s="122"/>
-      <c r="S120" s="122"/>
-      <c r="T120" s="122"/>
-      <c r="U120" s="122"/>
-      <c r="V120" s="122"/>
-      <c r="W120" s="122"/>
-      <c r="X120" s="122"/>
-      <c r="Y120" s="122"/>
-      <c r="Z120" s="122"/>
+    <row r="120" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A120" s="178">
+        <v>7</v>
+      </c>
+      <c r="B120" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="119"/>
+      <c r="E120" s="119"/>
+      <c r="F120" s="119"/>
+      <c r="G120" s="119"/>
+      <c r="H120" s="119"/>
+      <c r="I120" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
+      <c r="Z120" s="9"/>
     </row>
     <row r="121" spans="1:26" ht="15.6">
       <c r="A121" s="179"/>
@@ -5680,13 +5696,11 @@
       <c r="Z121" s="122"/>
     </row>
     <row r="122" spans="1:26" ht="15.6">
-      <c r="A122" s="197" t="s">
-        <v>93</v>
-      </c>
-      <c r="B122" s="185"/>
-      <c r="C122" s="185"/>
-      <c r="D122" s="185"/>
-      <c r="E122" s="185"/>
+      <c r="A122" s="179"/>
+      <c r="B122" s="122"/>
+      <c r="C122" s="122"/>
+      <c r="D122" s="122"/>
+      <c r="E122" s="122"/>
       <c r="F122" s="122"/>
       <c r="G122" s="122"/>
       <c r="H122" s="122"/>
@@ -5710,33 +5724,17 @@
       <c r="Z122" s="122"/>
     </row>
     <row r="123" spans="1:26" ht="15.6">
-      <c r="A123" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="168" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="168" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="168" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="H123" s="153" t="s">
-        <v>9</v>
-      </c>
-      <c r="I123" s="168" t="s">
-        <v>10</v>
-      </c>
+      <c r="A123" s="188" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" s="187"/>
+      <c r="C123" s="187"/>
+      <c r="D123" s="187"/>
+      <c r="E123" s="187"/>
+      <c r="F123" s="122"/>
+      <c r="G123" s="122"/>
+      <c r="H123" s="122"/>
+      <c r="I123" s="122"/>
       <c r="J123" s="122"/>
       <c r="K123" s="122"/>
       <c r="L123" s="122"/>
@@ -5756,25 +5754,33 @@
       <c r="Z123" s="122"/>
     </row>
     <row r="124" spans="1:26" ht="15.6">
-      <c r="A124" s="109">
-        <v>1</v>
-      </c>
-      <c r="B124" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="169" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="170"/>
-      <c r="E124" s="171"/>
-      <c r="F124" s="172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="172"/>
-      <c r="H124" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="172"/>
+      <c r="A124" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="168" t="s">
+        <v>10</v>
+      </c>
       <c r="J124" s="122"/>
       <c r="K124" s="122"/>
       <c r="L124" s="122"/>
@@ -5794,22 +5800,24 @@
       <c r="Z124" s="122"/>
     </row>
     <row r="125" spans="1:26" ht="15.6">
-      <c r="A125" s="180">
-        <v>2</v>
-      </c>
-      <c r="B125" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="C125" s="166" t="s">
+      <c r="A125" s="109">
+        <v>1</v>
+      </c>
+      <c r="B125" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="170"/>
       <c r="E125" s="171"/>
-      <c r="F125" s="173" t="s">
-        <v>40</v>
+      <c r="F125" s="172" t="s">
+        <v>13</v>
       </c>
       <c r="G125" s="172"/>
-      <c r="H125" s="154"/>
+      <c r="H125" s="154" t="s">
+        <v>14</v>
+      </c>
       <c r="I125" s="172"/>
       <c r="J125" s="122"/>
       <c r="K125" s="122"/>
@@ -5829,61 +5837,61 @@
       <c r="Y125" s="122"/>
       <c r="Z125" s="122"/>
     </row>
-    <row r="126" spans="1:26" ht="16.5" customHeight="1">
+    <row r="126" spans="1:26" ht="15.6">
       <c r="A126" s="180">
+        <v>2</v>
+      </c>
+      <c r="B126" s="163" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="170"/>
+      <c r="E126" s="171"/>
+      <c r="F126" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" s="172"/>
+      <c r="H126" s="154"/>
+      <c r="I126" s="172"/>
+      <c r="J126" s="122"/>
+      <c r="K126" s="122"/>
+      <c r="L126" s="122"/>
+      <c r="M126" s="122"/>
+      <c r="N126" s="122"/>
+      <c r="O126" s="122"/>
+      <c r="P126" s="122"/>
+      <c r="Q126" s="122"/>
+      <c r="R126" s="122"/>
+      <c r="S126" s="122"/>
+      <c r="T126" s="122"/>
+      <c r="U126" s="122"/>
+      <c r="V126" s="122"/>
+      <c r="W126" s="122"/>
+      <c r="X126" s="122"/>
+      <c r="Y126" s="122"/>
+      <c r="Z126" s="122"/>
+    </row>
+    <row r="127" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A127" s="180">
         <v>3</v>
       </c>
-      <c r="B126" s="158" t="s">
+      <c r="B127" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="C126" s="159" t="s">
+      <c r="C127" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="D126" s="164"/>
-      <c r="E126" s="165" t="s">
+      <c r="D127" s="164"/>
+      <c r="E127" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="158"/>
-      <c r="G126" s="158"/>
-      <c r="H126" s="158" t="s">
+      <c r="F127" s="158"/>
+      <c r="G127" s="158"/>
+      <c r="H127" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="I126" s="158"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-      <c r="U126" s="9"/>
-      <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
-      <c r="Z126" s="9"/>
-    </row>
-    <row r="127" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A127" s="180">
-        <v>4</v>
-      </c>
-      <c r="B127" s="158" t="s">
-        <v>52</v>
-      </c>
-      <c r="C127" s="159" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="164">
-        <v>500</v>
-      </c>
-      <c r="E127" s="165"/>
-      <c r="F127" s="162"/>
-      <c r="G127" s="158"/>
-      <c r="H127" s="158"/>
       <c r="I127" s="158"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
@@ -5905,16 +5913,16 @@
     </row>
     <row r="128" spans="1:26" ht="17.25" customHeight="1">
       <c r="A128" s="180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C128" s="159" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="164">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E128" s="165"/>
       <c r="F128" s="162"/>
@@ -5939,53 +5947,53 @@
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
     </row>
-    <row r="129" spans="1:26" ht="15.6">
+    <row r="129" spans="1:26" ht="17.25" customHeight="1">
       <c r="A129" s="180">
-        <v>6</v>
-      </c>
-      <c r="B129" s="174" t="s">
-        <v>89</v>
-      </c>
-      <c r="C129" s="175"/>
-      <c r="D129" s="175"/>
-      <c r="E129" s="175"/>
-      <c r="F129" s="175"/>
-      <c r="G129" s="175"/>
-      <c r="H129" s="175"/>
-      <c r="I129" s="175"/>
-      <c r="J129" s="122"/>
-      <c r="K129" s="122"/>
-      <c r="L129" s="122"/>
-      <c r="M129" s="122"/>
-      <c r="N129" s="122"/>
-      <c r="O129" s="122"/>
-      <c r="P129" s="122"/>
-      <c r="Q129" s="122"/>
-      <c r="R129" s="122"/>
-      <c r="S129" s="122"/>
-      <c r="T129" s="122"/>
-      <c r="U129" s="122"/>
-      <c r="V129" s="122"/>
-      <c r="W129" s="122"/>
-      <c r="X129" s="122"/>
-      <c r="Y129" s="122"/>
-      <c r="Z129" s="122"/>
+        <v>5</v>
+      </c>
+      <c r="B129" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="164">
+        <v>50</v>
+      </c>
+      <c r="E129" s="165"/>
+      <c r="F129" s="162"/>
+      <c r="G129" s="158"/>
+      <c r="H129" s="158"/>
+      <c r="I129" s="158"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="9"/>
+      <c r="Z129" s="9"/>
     </row>
     <row r="130" spans="1:26" ht="15.6">
       <c r="A130" s="180">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="C130" s="166" t="s">
-        <v>12</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C130" s="175"/>
       <c r="D130" s="175"/>
       <c r="E130" s="175"/>
-      <c r="F130" s="173" t="s">
-        <v>40</v>
-      </c>
+      <c r="F130" s="175"/>
       <c r="G130" s="175"/>
       <c r="H130" s="175"/>
       <c r="I130" s="175"/>
@@ -6008,15 +6016,23 @@
       <c r="Z130" s="122"/>
     </row>
     <row r="131" spans="1:26" ht="15.6">
-      <c r="A131" s="179"/>
-      <c r="B131" s="122"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="122"/>
-      <c r="E131" s="122"/>
-      <c r="F131" s="122"/>
-      <c r="G131" s="122"/>
-      <c r="H131" s="122"/>
-      <c r="I131" s="122"/>
+      <c r="A131" s="180">
+        <v>7</v>
+      </c>
+      <c r="B131" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="175"/>
+      <c r="E131" s="175"/>
+      <c r="F131" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="175"/>
+      <c r="H131" s="175"/>
+      <c r="I131" s="175"/>
       <c r="J131" s="122"/>
       <c r="K131" s="122"/>
       <c r="L131" s="122"/>
@@ -6035,46 +6051,44 @@
       <c r="Y131" s="122"/>
       <c r="Z131" s="122"/>
     </row>
-    <row r="132" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A132" s="176"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
-      <c r="Z132" s="9"/>
+    <row r="132" spans="1:26" ht="15.6">
+      <c r="A132" s="179"/>
+      <c r="B132" s="122"/>
+      <c r="C132" s="122"/>
+      <c r="D132" s="122"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="122"/>
+      <c r="P132" s="122"/>
+      <c r="Q132" s="122"/>
+      <c r="R132" s="122"/>
+      <c r="S132" s="122"/>
+      <c r="T132" s="122"/>
+      <c r="U132" s="122"/>
+      <c r="V132" s="122"/>
+      <c r="W132" s="122"/>
+      <c r="X132" s="122"/>
+      <c r="Y132" s="122"/>
+      <c r="Z132" s="122"/>
     </row>
     <row r="133" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A133" s="196" t="s">
-        <v>95</v>
-      </c>
-      <c r="B133" s="185"/>
-      <c r="C133" s="185"/>
-      <c r="D133" s="185"/>
-      <c r="E133" s="185"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
+      <c r="A133" s="176"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -6094,33 +6108,17 @@
       <c r="Z133" s="9"/>
     </row>
     <row r="134" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A134" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H134" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" s="47" t="s">
-        <v>10</v>
-      </c>
+      <c r="A134" s="186" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" s="187"/>
+      <c r="C134" s="187"/>
+      <c r="D134" s="187"/>
+      <c r="E134" s="187"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -6140,25 +6138,33 @@
       <c r="Z134" s="9"/>
     </row>
     <row r="135" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A135" s="50">
-        <v>1</v>
-      </c>
-      <c r="B135" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="49"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="48"/>
-      <c r="H135" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I135" s="48"/>
+      <c r="A135" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I135" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -6178,23 +6184,25 @@
       <c r="Z135" s="9"/>
     </row>
     <row r="136" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A136" s="53">
-        <v>2</v>
-      </c>
-      <c r="B136" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="52">
-        <v>50</v>
-      </c>
-      <c r="E136" s="53"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="45"/>
-      <c r="I136" s="45"/>
+      <c r="A136" s="50">
+        <v>1</v>
+      </c>
+      <c r="B136" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="49"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="48"/>
+      <c r="H136" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="48"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
@@ -6215,10 +6223,10 @@
     </row>
     <row r="137" spans="1:26" ht="16.5" customHeight="1">
       <c r="A137" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>16</v>
@@ -6251,20 +6259,18 @@
     </row>
     <row r="138" spans="1:26" ht="16.5" customHeight="1">
       <c r="A138" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D138" s="52">
         <v>50</v>
       </c>
-      <c r="E138" s="53" t="s">
-        <v>19</v>
-      </c>
+      <c r="E138" s="53"/>
       <c r="F138" s="45"/>
       <c r="G138" s="45"/>
       <c r="H138" s="45"/>
@@ -6289,18 +6295,20 @@
     </row>
     <row r="139" spans="1:26" ht="16.5" customHeight="1">
       <c r="A139" s="53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D139" s="52">
-        <v>500</v>
-      </c>
-      <c r="E139" s="53"/>
+        <v>50</v>
+      </c>
+      <c r="E139" s="53" t="s">
+        <v>19</v>
+      </c>
       <c r="F139" s="45"/>
       <c r="G139" s="45"/>
       <c r="H139" s="45"/>
@@ -6325,23 +6333,21 @@
     </row>
     <row r="140" spans="1:26" ht="16.5" customHeight="1">
       <c r="A140" s="53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C140" s="51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D140" s="52">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E140" s="53"/>
       <c r="F140" s="45"/>
       <c r="G140" s="45"/>
-      <c r="H140" s="45" t="s">
-        <v>17</v>
-      </c>
+      <c r="H140" s="45"/>
       <c r="I140" s="45"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -6363,21 +6369,23 @@
     </row>
     <row r="141" spans="1:26" ht="16.5" customHeight="1">
       <c r="A141" s="53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D141" s="52"/>
-      <c r="E141" s="53" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D141" s="52">
+        <v>50</v>
+      </c>
+      <c r="E141" s="53"/>
       <c r="F141" s="45"/>
       <c r="G141" s="45"/>
-      <c r="H141" s="45"/>
+      <c r="H141" s="45" t="s">
+        <v>17</v>
+      </c>
       <c r="I141" s="45"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -6398,15 +6406,23 @@
       <c r="Z141" s="9"/>
     </row>
     <row r="142" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A142" s="176"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
+      <c r="A142" s="53">
+        <v>7</v>
+      </c>
+      <c r="B142" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="52"/>
+      <c r="E142" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -6426,17 +6442,15 @@
       <c r="Z142" s="9"/>
     </row>
     <row r="143" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A143" s="196" t="s">
-        <v>96</v>
-      </c>
-      <c r="B143" s="185"/>
-      <c r="C143" s="185"/>
-      <c r="D143" s="185"/>
-      <c r="E143" s="185"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="46"/>
-      <c r="I143" s="46"/>
+      <c r="A143" s="176"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -6456,33 +6470,17 @@
       <c r="Z143" s="9"/>
     </row>
     <row r="144" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A144" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I144" s="123" t="s">
-        <v>10</v>
-      </c>
+      <c r="A144" s="186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144" s="187"/>
+      <c r="C144" s="187"/>
+      <c r="D144" s="187"/>
+      <c r="E144" s="187"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="46"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -6502,25 +6500,33 @@
       <c r="Z144" s="9"/>
     </row>
     <row r="145" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A145" s="127">
-        <v>1</v>
-      </c>
-      <c r="B145" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="126"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="124"/>
-      <c r="H145" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" s="124"/>
+      <c r="A145" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I145" s="123" t="s">
+        <v>10</v>
+      </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -6540,21 +6546,25 @@
       <c r="Z145" s="9"/>
     </row>
     <row r="146" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A146" s="178">
-        <v>2</v>
-      </c>
-      <c r="B146" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="C146" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="D146" s="119"/>
-      <c r="E146" s="119"/>
-      <c r="F146" s="119"/>
-      <c r="G146" s="119"/>
-      <c r="H146" s="119"/>
-      <c r="I146" s="119"/>
+      <c r="A146" s="127">
+        <v>1</v>
+      </c>
+      <c r="B146" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="126"/>
+      <c r="E146" s="127"/>
+      <c r="F146" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="124"/>
+      <c r="H146" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="124"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -6574,15 +6584,21 @@
       <c r="Z146" s="9"/>
     </row>
     <row r="147" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A147" s="176"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
+      <c r="A147" s="178">
+        <v>2</v>
+      </c>
+      <c r="B147" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D147" s="119"/>
+      <c r="E147" s="119"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="119"/>
+      <c r="H147" s="119"/>
+      <c r="I147" s="119"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -6602,17 +6618,15 @@
       <c r="Z147" s="9"/>
     </row>
     <row r="148" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A148" s="196" t="s">
-        <v>99</v>
-      </c>
-      <c r="B148" s="185"/>
-      <c r="C148" s="185"/>
-      <c r="D148" s="185"/>
-      <c r="E148" s="185"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
-      <c r="I148" s="46"/>
+      <c r="A148" s="176"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -6632,33 +6646,17 @@
       <c r="Z148" s="9"/>
     </row>
     <row r="149" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A149" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I149" s="123" t="s">
-        <v>10</v>
-      </c>
+      <c r="A149" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" s="187"/>
+      <c r="C149" s="187"/>
+      <c r="D149" s="187"/>
+      <c r="E149" s="187"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="46"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="46"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -6678,25 +6676,33 @@
       <c r="Z149" s="9"/>
     </row>
     <row r="150" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A150" s="127">
-        <v>1</v>
-      </c>
-      <c r="B150" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="126"/>
-      <c r="E150" s="127"/>
-      <c r="F150" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="124"/>
-      <c r="H150" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="124"/>
+      <c r="A150" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I150" s="123" t="s">
+        <v>10</v>
+      </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
@@ -6716,21 +6722,25 @@
       <c r="Z150" s="9"/>
     </row>
     <row r="151" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A151" s="178">
-        <v>2</v>
-      </c>
-      <c r="B151" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="C151" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="D151" s="119"/>
-      <c r="E151" s="119"/>
-      <c r="F151" s="119"/>
-      <c r="G151" s="119"/>
-      <c r="H151" s="119"/>
-      <c r="I151" s="119"/>
+      <c r="A151" s="127">
+        <v>1</v>
+      </c>
+      <c r="B151" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="126"/>
+      <c r="E151" s="127"/>
+      <c r="F151" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="124"/>
+      <c r="H151" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="124"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
@@ -6750,15 +6760,21 @@
       <c r="Z151" s="9"/>
     </row>
     <row r="152" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A152" s="176"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
+      <c r="A152" s="178">
+        <v>2</v>
+      </c>
+      <c r="B152" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152" s="119"/>
+      <c r="E152" s="119"/>
+      <c r="F152" s="119"/>
+      <c r="G152" s="119"/>
+      <c r="H152" s="119"/>
+      <c r="I152" s="119"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
@@ -6778,17 +6794,15 @@
       <c r="Z152" s="9"/>
     </row>
     <row r="153" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A153" s="196" t="s">
-        <v>101</v>
-      </c>
-      <c r="B153" s="185"/>
-      <c r="C153" s="185"/>
-      <c r="D153" s="185"/>
-      <c r="E153" s="185"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="46"/>
+      <c r="A153" s="176"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
@@ -6808,33 +6822,17 @@
       <c r="Z153" s="9"/>
     </row>
     <row r="154" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A154" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D154" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G154" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I154" s="123" t="s">
-        <v>10</v>
-      </c>
+      <c r="A154" s="186" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" s="187"/>
+      <c r="C154" s="187"/>
+      <c r="D154" s="187"/>
+      <c r="E154" s="187"/>
+      <c r="F154" s="46"/>
+      <c r="G154" s="46"/>
+      <c r="H154" s="46"/>
+      <c r="I154" s="46"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
@@ -6854,25 +6852,33 @@
       <c r="Z154" s="9"/>
     </row>
     <row r="155" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A155" s="127">
-        <v>1</v>
-      </c>
-      <c r="B155" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="126"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="124"/>
-      <c r="H155" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I155" s="124"/>
+      <c r="A155" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I155" s="123" t="s">
+        <v>10</v>
+      </c>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -6892,25 +6898,25 @@
       <c r="Z155" s="9"/>
     </row>
     <row r="156" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A156" s="178">
-        <v>2</v>
-      </c>
-      <c r="B156" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="C156" s="145" t="s">
+      <c r="A156" s="127">
+        <v>1</v>
+      </c>
+      <c r="B156" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="119"/>
-      <c r="E156" s="119"/>
-      <c r="F156" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="G156" s="119"/>
-      <c r="H156" s="119"/>
-      <c r="I156" s="119" t="s">
-        <v>103</v>
-      </c>
+      <c r="D156" s="126"/>
+      <c r="E156" s="127"/>
+      <c r="F156" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="124"/>
+      <c r="H156" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="124"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -6930,15 +6936,25 @@
       <c r="Z156" s="9"/>
     </row>
     <row r="157" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A157" s="176"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
+      <c r="A157" s="178">
+        <v>2</v>
+      </c>
+      <c r="B157" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="119"/>
+      <c r="E157" s="119"/>
+      <c r="F157" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" s="119"/>
+      <c r="H157" s="119"/>
+      <c r="I157" s="119" t="s">
+        <v>103</v>
+      </c>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
@@ -6958,17 +6974,15 @@
       <c r="Z157" s="9"/>
     </row>
     <row r="158" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A158" s="196" t="s">
-        <v>111</v>
-      </c>
-      <c r="B158" s="185"/>
-      <c r="C158" s="185"/>
-      <c r="D158" s="185"/>
-      <c r="E158" s="185"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="46"/>
-      <c r="H158" s="46"/>
-      <c r="I158" s="46"/>
+      <c r="A158" s="176"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -6988,33 +7002,17 @@
       <c r="Z158" s="9"/>
     </row>
     <row r="159" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A159" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G159" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I159" s="123" t="s">
-        <v>10</v>
-      </c>
+      <c r="A159" s="186" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159" s="187"/>
+      <c r="C159" s="187"/>
+      <c r="D159" s="187"/>
+      <c r="E159" s="187"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="46"/>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -7034,26 +7032,32 @@
       <c r="Z159" s="9"/>
     </row>
     <row r="160" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A160" s="127">
-        <v>1</v>
-      </c>
-      <c r="B160" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="126"/>
-      <c r="E160" s="127"/>
-      <c r="F160" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" s="124"/>
-      <c r="H160" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="I160" s="124" t="s">
-        <v>110</v>
+      <c r="A160" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="I160" s="123" t="s">
+        <v>10</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -7074,23 +7078,27 @@
       <c r="Z160" s="9"/>
     </row>
     <row r="161" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A161" s="178">
-        <v>2</v>
-      </c>
-      <c r="B161" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="C161" s="145" t="s">
+      <c r="A161" s="127">
+        <v>1</v>
+      </c>
+      <c r="B161" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="119"/>
-      <c r="E161" s="119"/>
-      <c r="F161" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="G161" s="119"/>
-      <c r="H161" s="119"/>
-      <c r="I161" s="119"/>
+      <c r="D161" s="126"/>
+      <c r="E161" s="127"/>
+      <c r="F161" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="124"/>
+      <c r="H161" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="124" t="s">
+        <v>110</v>
+      </c>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -7111,10 +7119,10 @@
     </row>
     <row r="162" spans="1:26" ht="16.5" customHeight="1">
       <c r="A162" s="178">
-        <v>3</v>
-      </c>
-      <c r="B162" s="119" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="B162" s="120" t="s">
+        <v>104</v>
       </c>
       <c r="C162" s="145" t="s">
         <v>12</v>
@@ -7146,15 +7154,21 @@
       <c r="Z162" s="9"/>
     </row>
     <row r="163" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A163" s="176"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
+      <c r="A163" s="178">
+        <v>3</v>
+      </c>
+      <c r="B163" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="119"/>
+      <c r="E163" s="119"/>
+      <c r="F163" s="173"/>
+      <c r="G163" s="119"/>
+      <c r="H163" s="119"/>
+      <c r="I163" s="119"/>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -7174,15 +7188,23 @@
       <c r="Z163" s="9"/>
     </row>
     <row r="164" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A164" s="176"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9"/>
+      <c r="A164" s="178">
+        <v>4</v>
+      </c>
+      <c r="B164" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="C164" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="119"/>
+      <c r="E164" s="119"/>
+      <c r="F164" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="G164" s="119"/>
+      <c r="H164" s="119"/>
+      <c r="I164" s="119"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
@@ -7202,15 +7224,15 @@
       <c r="Z164" s="9"/>
     </row>
     <row r="165" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A165" s="176"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
+      <c r="A165" s="200"/>
+      <c r="B165" s="201"/>
+      <c r="C165" s="202"/>
+      <c r="D165" s="201"/>
+      <c r="E165" s="201"/>
+      <c r="F165" s="203"/>
+      <c r="G165" s="201"/>
+      <c r="H165" s="201"/>
+      <c r="I165" s="201"/>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -28957,16 +28979,94 @@
       <c r="Y941" s="9"/>
       <c r="Z941" s="9"/>
     </row>
+    <row r="942" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A942" s="176"/>
+      <c r="B942" s="9"/>
+      <c r="C942" s="9"/>
+      <c r="D942" s="9"/>
+      <c r="E942" s="9"/>
+      <c r="F942" s="9"/>
+      <c r="G942" s="9"/>
+      <c r="H942" s="9"/>
+      <c r="I942" s="9"/>
+      <c r="J942" s="9"/>
+      <c r="K942" s="9"/>
+      <c r="L942" s="9"/>
+      <c r="M942" s="9"/>
+      <c r="N942" s="9"/>
+      <c r="O942" s="9"/>
+      <c r="P942" s="9"/>
+      <c r="Q942" s="9"/>
+      <c r="R942" s="9"/>
+      <c r="S942" s="9"/>
+      <c r="T942" s="9"/>
+      <c r="U942" s="9"/>
+      <c r="V942" s="9"/>
+      <c r="W942" s="9"/>
+      <c r="X942" s="9"/>
+      <c r="Y942" s="9"/>
+      <c r="Z942" s="9"/>
+    </row>
+    <row r="943" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A943" s="176"/>
+      <c r="B943" s="9"/>
+      <c r="C943" s="9"/>
+      <c r="D943" s="9"/>
+      <c r="E943" s="9"/>
+      <c r="F943" s="9"/>
+      <c r="G943" s="9"/>
+      <c r="H943" s="9"/>
+      <c r="I943" s="9"/>
+      <c r="J943" s="9"/>
+      <c r="K943" s="9"/>
+      <c r="L943" s="9"/>
+      <c r="M943" s="9"/>
+      <c r="N943" s="9"/>
+      <c r="O943" s="9"/>
+      <c r="P943" s="9"/>
+      <c r="Q943" s="9"/>
+      <c r="R943" s="9"/>
+      <c r="S943" s="9"/>
+      <c r="T943" s="9"/>
+      <c r="U943" s="9"/>
+      <c r="V943" s="9"/>
+      <c r="W943" s="9"/>
+      <c r="X943" s="9"/>
+      <c r="Y943" s="9"/>
+      <c r="Z943" s="9"/>
+    </row>
+    <row r="944" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A944" s="176"/>
+      <c r="B944" s="9"/>
+      <c r="C944" s="9"/>
+      <c r="D944" s="9"/>
+      <c r="E944" s="9"/>
+      <c r="F944" s="9"/>
+      <c r="G944" s="9"/>
+      <c r="H944" s="9"/>
+      <c r="I944" s="9"/>
+      <c r="J944" s="9"/>
+      <c r="K944" s="9"/>
+      <c r="L944" s="9"/>
+      <c r="M944" s="9"/>
+      <c r="N944" s="9"/>
+      <c r="O944" s="9"/>
+      <c r="P944" s="9"/>
+      <c r="Q944" s="9"/>
+      <c r="R944" s="9"/>
+      <c r="S944" s="9"/>
+      <c r="T944" s="9"/>
+      <c r="U944" s="9"/>
+      <c r="V944" s="9"/>
+      <c r="W944" s="9"/>
+      <c r="X944" s="9"/>
+      <c r="Y944" s="9"/>
+      <c r="Z944" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A112:E112"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A63:E63"/>
@@ -28978,6 +29078,12 @@
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A75:E75"/>
     <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A149:E149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
